--- a/biology/Botanique/Freziera/Freziera.xlsx
+++ b/biology/Botanique/Freziera/Freziera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Freziera est un genre de plantes à fleurs de la famille des Pentaphylacaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (6 août 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (6 août 2018) :
 Freziera angulosa Tul.
 Freziera arbutifolia Triana &amp; Planch.
 Freziera atlantica Zorzan. &amp; Amorim
@@ -572,11 +586,11 @@
 Freziera undulata (Sw.) Willd.
 Freziera verrucosa (Hieron.) Kobuski
 Freziera yanachagensis D.Santam.
-Selon NCBI  (6 août 2018)[3] :
+Selon NCBI  (6 août 2018) :
 Freziera reticulata
 Freziera undulata
 Freziera verrucosa
-Selon The Plant List            (6 août 2018)[4] :
+Selon The Plant List            (6 août 2018) :
 Freziera angulosa Tul.
 Freziera arbutifolia Planch. &amp; Triana
 Freziera bonplandiana Tul.
@@ -621,7 +635,7 @@
 Freziera tomentosa (Ruiz &amp; Pav.) Tul.
 Freziera undulata (Sw.) Sw. ex Willd.
 Freziera verrucosa (Hieron.) Kobuski
-Selon Tropicos                                           (6 août 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 août 2018) (Attention liste brute contenant possiblement des synonymes) :
 Freziera alata A.L. Weitzman
 Freziera angulosa Tul.
 Freziera apolobambensis D. Santam. &amp; A. Fuentes
